--- a/ourHouse/黄工装修报价.xlsx
+++ b/ourHouse/黄工装修报价.xlsx
@@ -324,47 +324,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>加隔音棉，需要增加400人工，材料自己买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金窗户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐便器，厨卫小五金，热水器这些费用不包含在内，因购买马桶/热水器/橱柜这些是额外购买商品，第三方是包含安装服务，如特别指定这边安装会适当收钱安装费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含安装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>地面需要刷3遍，需增加600人工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加隔音棉，需要增加400人工，材料自己买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米</t>
+    <t>现有白灰不需要清除，因后期天花与墙壁会上一次固墙剂再进行腻子粉施工，如特别要求增加费用750。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铲除腻子粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铝合金窗户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括踢脚线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有白灰不需要清除，因后期天花与墙壁会上一次固墙剂再进行腻子粉施工，如特别要求增加费用750。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐便器，厨卫小五金，热水器这些费用不包含在内，因购买马桶/热水器/橱柜这些是额外购买商品，第三方是包含安装服务，如特别指定这边安装会适当收钱安装费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含安装费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,14 +497,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,7 +812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,7 +823,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -835,14 +835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="47.1" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="27.95" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -944,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.95" customHeight="1">
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.95" customHeight="1">
@@ -990,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.95" customHeight="1">
@@ -1108,7 +1108,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27.95" customHeight="1">
@@ -1127,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27.95" customHeight="1">
@@ -1230,23 +1230,23 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="84.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6">
         <v>260</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="9" t="s">
-        <v>54</v>
+      <c r="G22" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="44.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1254,19 +1254,19 @@
         <v>750</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="9" t="s">
-        <v>53</v>
+      <c r="G23" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="4">
         <v>3.84</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="6">
         <v>940</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.95" customHeight="1">
